--- a/WebContent/tempFile/店铺信息表.xlsx
+++ b/WebContent/tempFile/店铺信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,30 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>店铺名称</t>
   </si>
   <si>
+    <t>店铺账号（自己填写，不能重复）</t>
+  </si>
+  <si>
     <t>所属品牌</t>
   </si>
   <si>
+    <t>店铺所属商圈</t>
+  </si>
+  <si>
     <t>店铺地址</t>
   </si>
   <si>
     <t>店铺联系电话</t>
   </si>
   <si>
-    <t>店铺类型</t>
-  </si>
-  <si>
-    <t>运营开始时间</t>
-  </si>
-  <si>
-    <t>营业时间起</t>
-  </si>
-  <si>
-    <t>营业时间止</t>
+    <t>店铺类型（1.夜宵 
+2.正餐）</t>
+  </si>
+  <si>
+    <t>运营开始时间（2017/3/20）</t>
+  </si>
+  <si>
+    <t>营业时间起（8:00:00）</t>
+  </si>
+  <si>
+    <t>营业时间止（18:00:00）</t>
   </si>
   <si>
     <t>配送方式</t>
@@ -49,10 +56,10 @@
     <t>店长电话</t>
   </si>
   <si>
-    <t>是否可以提供发票</t>
-  </si>
-  <si>
-    <t>结算方式</t>
+    <t>是否可以提供发票(0.否，1.是)</t>
+  </si>
+  <si>
+    <t>结算方式（1.现金）</t>
   </si>
   <si>
     <t>登记人</t>
@@ -70,6 +77,9 @@
     <t>饿了么平台账号</t>
   </si>
   <si>
+    <t>饿了么平台密码</t>
+  </si>
+  <si>
     <t>饿了么店铺ID</t>
   </si>
   <si>
@@ -79,6 +89,9 @@
     <t>美团平台账号</t>
   </si>
   <si>
+    <t>美团平台密码</t>
+  </si>
+  <si>
     <t>美团平台佣金率</t>
   </si>
   <si>
@@ -97,7 +110,46 @@
     <t>百度平台月销售单量</t>
   </si>
   <si>
-    <t>绑卡类型</t>
+    <t>绑卡类型（1.绑商家，2.绑店铺）</t>
+  </si>
+  <si>
+    <t>奶奶的茶</t>
+  </si>
+  <si>
+    <t>nndcdp</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>贺龙商圈</t>
+  </si>
+  <si>
+    <t>测试地址</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>录入人</t>
+  </si>
+  <si>
+    <t>cs-nndchld0</t>
+  </si>
+  <si>
+    <t>1234567abc</t>
+  </si>
+  <si>
+    <t>wmnndc8283</t>
+  </si>
+  <si>
+    <t>cs15274926695</t>
+  </si>
+  <si>
+    <t>Yu715681</t>
+  </si>
+  <si>
+    <t>你</t>
   </si>
 </sst>
 </file>
@@ -105,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -134,12 +186,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -149,14 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +282,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -179,9 +299,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,82 +320,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,25 +336,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,145 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -498,6 +559,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,37 +616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +641,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,20 +787,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1071,24 +1123,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="12.625"/>
-    <col min="6" max="6" width="11.5"/>
-    <col min="7" max="8" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="12.625"/>
-    <col min="15" max="15" width="10.375"/>
-    <col min="19" max="19" width="10.375"/>
-    <col min="24" max="24" width="12.625"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="12.625"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="10.375"/>
+    <col min="22" max="22" width="10.375"/>
+    <col min="28" max="28" width="12.625"/>
+    <col min="32" max="32" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1173,307 +1231,288 @@
       <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="22" customHeight="1" spans="6:22">
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="4"/>
-      <c r="V2" s="11"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="22" customHeight="1" spans="6:22">
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="4"/>
-      <c r="V3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="22" customHeight="1" spans="6:22">
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="4"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="22" customHeight="1" spans="6:22">
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="22" customHeight="1" spans="6:26">
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="22" customHeight="1" spans="1:32">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1880000000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>42814</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1880000000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>42814</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22" customHeight="1" spans="8:26">
+      <c r="H3" s="4"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="Q3" s="4"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22" customHeight="1" spans="8:26">
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="Q4" s="4"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="22" customHeight="1" spans="8:30">
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="Q5" s="4"/>
+      <c r="Z5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="22" customHeight="1" spans="8:30">
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="Q6" s="4"/>
+      <c r="V6" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="Z6" s="11"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="22" customHeight="1" spans="6:26">
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="22" customHeight="1" spans="8:26">
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="Q7" s="4"/>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="22" customHeight="1" spans="6:22">
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="4"/>
-      <c r="V8" s="11"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="22" customHeight="1" spans="6:26">
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="4"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+    <row r="8" s="2" customFormat="1" ht="22" customHeight="1" spans="8:30">
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="Q8" s="4"/>
+      <c r="Z8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="22" customHeight="1" spans="8:30">
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="Q9" s="4"/>
       <c r="Z9" s="11"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="22" customHeight="1" spans="6:26">
-      <c r="F10" s="4"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="22" customHeight="1" spans="6:30">
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="4"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="11"/>
+      <c r="Q10" s="4"/>
       <c r="Z10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="22" customHeight="1" spans="4:26">
-      <c r="D11" s="6"/>
+      <c r="AD10" s="11"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="22" customHeight="1" spans="5:30">
       <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="4"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="11"/>
+      <c r="Q11" s="4"/>
       <c r="Z11" s="11"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="22" customHeight="1" spans="3:26">
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="AD11" s="11"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="22" customHeight="1" spans="6:30">
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="4"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="Q12" s="4"/>
       <c r="Z12" s="11"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="22" customHeight="1" spans="4:26">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
+      <c r="AD12" s="11"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="22" customHeight="1" spans="1:26">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="4"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="Q13" s="4"/>
+      <c r="V13" s="7"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="22" customHeight="1" spans="1:22">
+    <row r="14" s="2" customFormat="1" ht="22" customHeight="1" spans="1:26">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="4"/>
-      <c r="S14" s="8"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="22" customHeight="1" spans="1:22">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="Q14" s="4"/>
+      <c r="V14" s="8"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="22" customHeight="1" spans="1:26">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="4"/>
-      <c r="S15" s="9"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="22" customHeight="1" spans="1:22">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="Q15" s="4"/>
+      <c r="V15" s="7"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="22" customHeight="1" spans="1:30">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="4"/>
-      <c r="S16" s="8"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="22" customHeight="1" spans="1:26">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="4"/>
-      <c r="S17" s="8"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="5"/>
+      <c r="Q16" s="4"/>
+      <c r="V16" s="7"/>
+      <c r="Z16" s="11"/>
+      <c r="AD16" s="11"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="22" customHeight="1" spans="1:30">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="Q17" s="4"/>
+      <c r="V17" s="7"/>
       <c r="Z17" s="11"/>
+      <c r="AD17" s="11"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="22" customHeight="1" spans="1:26">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="4"/>
-      <c r="S18" s="8"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="Q18" s="4"/>
+      <c r="V18" s="7"/>
       <c r="Z18" s="11"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="22" customHeight="1" spans="1:22">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="S19" s="8"/>
-      <c r="V19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
